--- a/backend_tests/z_input_files/v2/12_import_commands_example.xlsx
+++ b/backend_tests/z_input_files/v2/12_import_commands_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">Worksheets</t>
   </si>
   <si>
-    <t xml:space="preserve">file:///home/rnebot/GoogleDrive/AA_MAGIC/nis-backend/backend_tests/z_input_files/v2/02_declare_hierarchies_and_cloning_and_scaling.xlsx</t>
+    <t xml:space="preserve">file:///tmp/02_declare_hierarchies_and_cloning_and_scaling.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">InterfaceTypeHierarchy</t>
@@ -186,9 +186,6 @@
     <t xml:space="preserve">Alias</t>
   </si>
   <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
     <t xml:space="preserve">ElectricGrid</t>
   </si>
   <si>
@@ -279,7 +276,7 @@
     <t xml:space="preserve">Weight</t>
   </si>
   <si>
-    <t xml:space="preserve">SourceCardinality</t>
+    <t xml:space="preserve">OriginCardinality</t>
   </si>
   <si>
     <t xml:space="preserve">DestinationCardinality</t>
@@ -292,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -351,6 +348,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -394,7 +399,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,14 +444,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -464,7 +473,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
@@ -616,8 +625,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -627,15 +636,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="22.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="53.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="12.64"/>
@@ -663,32 +672,21 @@
       <c r="I1" s="1"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="file:///home/rnebot/GoogleDrive/AA_MAGIC/nis-backend/backend_tests/z_input_files/v2/02_declare_hierarchies_and_cloning_and_scaling.xlsx"/>
+    <hyperlink ref="A2" r:id="rId1" display="file:///tmp/02_declare_hierarchies_and_cloning_and_scaling.xlsx"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -711,7 +709,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.32"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -772,8 +770,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -786,7 +784,7 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,9 +799,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="41.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="41.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -838,57 +835,55 @@
         <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>61</v>
+      <c r="K3" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -896,8 +891,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -907,10 +902,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -924,19 +919,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="5.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="7" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="7" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="7" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="7" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="7" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="7" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="7" width="10.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="7" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="7" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="7" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="7" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="7" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="7" width="10.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,7 +938,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -959,22 +953,22 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>67</v>
@@ -999,9 +993,6 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,34 +1002,33 @@
         <v>39</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="n">
+      <c r="J2" s="8" t="n">
         <v>3.5</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="n">
+      <c r="Q2" s="8" t="n">
         <v>2016</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1046,8 +1036,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1059,8 +1049,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,46 +1068,46 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="8"/>
     </row>
   </sheetData>
@@ -1125,8 +1115,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/backend_tests/z_input_files/v2/12_import_commands_example.xlsx
+++ b/backend_tests/z_input_files/v2/12_import_commands_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output</t>
   </si>
   <si>
     <t xml:space="preserve">[prov1]</t>
@@ -904,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1006,7 +1009,9 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="n">
@@ -1024,11 +1029,11 @@
         <v>2016</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1054,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1068,28 +1073,28 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
